--- a/employment_rates/FL/FL_LAUS_data.xlsx
+++ b/employment_rates/FL/FL_LAUS_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/employment_rates/FL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA9CB4B-7461-D148-8C1A-2434462EA24D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D6BEE9-6A91-924D-8E73-5CB6C9E76FDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17540" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="104">
   <si>
     <t>AREA</t>
   </si>
@@ -331,10 +331,10 @@
     <t>West Palm Beach-Boca Raton-Delray Beach MD</t>
   </si>
   <si>
-    <t>Released: June 19, 2020</t>
+    <t>January 2020 - Current</t>
   </si>
   <si>
-    <t>January 2020 - Current</t>
+    <t>Released: RELEASED July 17, 2020</t>
   </si>
 </sst>
 </file>
@@ -353,6 +353,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -829,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F450" sqref="F450"/>
+    <sheetView tabSelected="1" topLeftCell="A528" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J551" sqref="J551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -867,7 +868,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -878,7 +879,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -9477,16 +9478,16 @@
         <v>5</v>
       </c>
       <c r="D379" s="2">
-        <v>9731000</v>
+        <v>9652000</v>
       </c>
       <c r="E379">
-        <v>8336000</v>
+        <v>8348000</v>
       </c>
       <c r="F379">
-        <v>1395000</v>
+        <v>1304000</v>
       </c>
       <c r="G379" s="4">
-        <v>14.3</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.15">
@@ -9500,16 +9501,16 @@
         <v>5</v>
       </c>
       <c r="D380" s="2">
-        <v>126586</v>
+        <v>125991</v>
       </c>
       <c r="E380">
-        <v>115488</v>
+        <v>115876</v>
       </c>
       <c r="F380">
-        <v>11098</v>
+        <v>10115</v>
       </c>
       <c r="G380" s="4">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.15">
@@ -9523,16 +9524,16 @@
         <v>5</v>
       </c>
       <c r="D381" s="2">
-        <v>10663</v>
+        <v>10669</v>
       </c>
       <c r="E381">
-        <v>9847</v>
+        <v>9915</v>
       </c>
       <c r="F381">
-        <v>816</v>
+        <v>754</v>
       </c>
       <c r="G381" s="4">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.15">
@@ -9546,16 +9547,16 @@
         <v>5</v>
       </c>
       <c r="D382" s="2">
-        <v>79326</v>
+        <v>78536</v>
       </c>
       <c r="E382">
-        <v>70292</v>
+        <v>70379</v>
       </c>
       <c r="F382">
-        <v>9034</v>
+        <v>8157</v>
       </c>
       <c r="G382" s="4">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.15">
@@ -9569,16 +9570,16 @@
         <v>5</v>
       </c>
       <c r="D383" s="2">
-        <v>10057</v>
+        <v>10021</v>
       </c>
       <c r="E383">
-        <v>9252</v>
+        <v>9269</v>
       </c>
       <c r="F383">
-        <v>805</v>
+        <v>752</v>
       </c>
       <c r="G383" s="4">
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.15">
@@ -9592,16 +9593,16 @@
         <v>5</v>
       </c>
       <c r="D384" s="2">
-        <v>272891</v>
+        <v>270705</v>
       </c>
       <c r="E384">
-        <v>238558</v>
+        <v>239436</v>
       </c>
       <c r="F384">
-        <v>34333</v>
+        <v>31269</v>
       </c>
       <c r="G384" s="4">
-        <v>12.6</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.15">
@@ -9615,16 +9616,16 @@
         <v>5</v>
       </c>
       <c r="D385" s="2">
-        <v>988718</v>
+        <v>979822</v>
       </c>
       <c r="E385">
-        <v>830966</v>
+        <v>831114</v>
       </c>
       <c r="F385">
-        <v>157752</v>
+        <v>148708</v>
       </c>
       <c r="G385" s="4">
-        <v>16</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.15">
@@ -9638,16 +9639,16 @@
         <v>5</v>
       </c>
       <c r="D386" s="2">
-        <v>4345</v>
+        <v>4307</v>
       </c>
       <c r="E386">
-        <v>3996</v>
+        <v>3993</v>
       </c>
       <c r="F386">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="G386" s="4">
-        <v>8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.15">
@@ -9661,16 +9662,16 @@
         <v>5</v>
       </c>
       <c r="D387" s="2">
-        <v>68435</v>
+        <v>67918</v>
       </c>
       <c r="E387">
-        <v>59218</v>
+        <v>59443</v>
       </c>
       <c r="F387">
-        <v>9217</v>
+        <v>8475</v>
       </c>
       <c r="G387" s="4">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.15">
@@ -9684,16 +9685,16 @@
         <v>5</v>
       </c>
       <c r="D388" s="2">
-        <v>46357</v>
+        <v>45788</v>
       </c>
       <c r="E388">
-        <v>39714</v>
+        <v>39706</v>
       </c>
       <c r="F388">
-        <v>6643</v>
+        <v>6082</v>
       </c>
       <c r="G388" s="4">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.15">
@@ -9707,16 +9708,16 @@
         <v>5</v>
       </c>
       <c r="D389" s="2">
-        <v>99216</v>
+        <v>99032</v>
       </c>
       <c r="E389">
-        <v>89604</v>
+        <v>90227</v>
       </c>
       <c r="F389">
-        <v>9612</v>
+        <v>8805</v>
       </c>
       <c r="G389" s="4">
-        <v>9.6999999999999993</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.15">
@@ -9730,16 +9731,16 @@
         <v>5</v>
       </c>
       <c r="D390" s="2">
-        <v>168696</v>
+        <v>165796</v>
       </c>
       <c r="E390">
-        <v>146670</v>
+        <v>145329</v>
       </c>
       <c r="F390">
-        <v>22026</v>
+        <v>20467</v>
       </c>
       <c r="G390" s="4">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.15">
@@ -9753,16 +9754,16 @@
         <v>5</v>
       </c>
       <c r="D391" s="2">
-        <v>27274</v>
+        <v>27110</v>
       </c>
       <c r="E391">
-        <v>24819</v>
+        <v>24808</v>
       </c>
       <c r="F391">
-        <v>2455</v>
+        <v>2302</v>
       </c>
       <c r="G391" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.15">
@@ -9776,16 +9777,16 @@
         <v>5</v>
       </c>
       <c r="D392" s="2">
-        <v>13877</v>
+        <v>13807</v>
       </c>
       <c r="E392">
-        <v>12893</v>
+        <v>12886</v>
       </c>
       <c r="F392">
-        <v>984</v>
+        <v>921</v>
       </c>
       <c r="G392" s="4">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.15">
@@ -9799,16 +9800,16 @@
         <v>5</v>
       </c>
       <c r="D393" s="2">
-        <v>5376</v>
+        <v>5346</v>
       </c>
       <c r="E393">
-        <v>4932</v>
+        <v>4930</v>
       </c>
       <c r="F393">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="G393" s="4">
-        <v>8.3000000000000007</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.15">
@@ -9822,16 +9823,16 @@
         <v>5</v>
       </c>
       <c r="D394" s="2">
-        <v>462173</v>
+        <v>461194</v>
       </c>
       <c r="E394" s="3">
-        <v>407872</v>
+        <v>410677</v>
       </c>
       <c r="F394" s="3">
-        <v>54301</v>
+        <v>50517</v>
       </c>
       <c r="G394" s="4">
-        <v>11.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.15">
@@ -9845,16 +9846,16 @@
         <v>5</v>
       </c>
       <c r="D395" s="2">
-        <v>136356</v>
+        <v>135227</v>
       </c>
       <c r="E395" s="3">
-        <v>120247</v>
+        <v>120506</v>
       </c>
       <c r="F395" s="3">
-        <v>16109</v>
+        <v>14721</v>
       </c>
       <c r="G395" s="4">
-        <v>11.8</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.15">
@@ -9868,16 +9869,16 @@
         <v>5</v>
       </c>
       <c r="D396" s="2">
-        <v>44958</v>
+        <v>44491</v>
       </c>
       <c r="E396">
-        <v>38283</v>
+        <v>38389</v>
       </c>
       <c r="F396">
-        <v>6675</v>
+        <v>6102</v>
       </c>
       <c r="G396" s="4">
-        <v>14.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.15">
@@ -9891,16 +9892,16 @@
         <v>5</v>
       </c>
       <c r="D397" s="2">
-        <v>4235</v>
+        <v>4204</v>
       </c>
       <c r="E397">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="F397">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="G397" s="4">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.15">
@@ -9914,16 +9915,16 @@
         <v>5</v>
       </c>
       <c r="D398" s="2">
-        <v>17144</v>
+        <v>17120</v>
       </c>
       <c r="E398">
-        <v>15646</v>
+        <v>15708</v>
       </c>
       <c r="F398">
-        <v>1498</v>
+        <v>1412</v>
       </c>
       <c r="G398" s="4">
-        <v>8.6999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.15">
@@ -9937,16 +9938,16 @@
         <v>5</v>
       </c>
       <c r="D399" s="2">
-        <v>6344</v>
+        <v>6326</v>
       </c>
       <c r="E399">
-        <v>5893</v>
+        <v>5912</v>
       </c>
       <c r="F399">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="G399" s="4">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.15">
@@ -9960,16 +9961,16 @@
         <v>5</v>
       </c>
       <c r="D400" s="2">
-        <v>5166</v>
+        <v>5129</v>
       </c>
       <c r="E400">
-        <v>4756</v>
+        <v>4751</v>
       </c>
       <c r="F400">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="G400" s="4">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.15">
@@ -9983,16 +9984,16 @@
         <v>5</v>
       </c>
       <c r="D401" s="2">
-        <v>5246</v>
+        <v>5211</v>
       </c>
       <c r="E401">
-        <v>4764</v>
+        <v>4770</v>
       </c>
       <c r="F401">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="G401" s="4">
-        <v>9.1999999999999993</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.15">
@@ -10006,16 +10007,16 @@
         <v>5</v>
       </c>
       <c r="D402" s="2">
-        <v>3967</v>
+        <v>3940</v>
       </c>
       <c r="E402">
-        <v>3544</v>
+        <v>3535</v>
       </c>
       <c r="F402">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="G402" s="4">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.15">
@@ -10029,16 +10030,16 @@
         <v>5</v>
       </c>
       <c r="D403" s="2">
-        <v>8062</v>
+        <v>7997</v>
       </c>
       <c r="E403">
-        <v>7352</v>
+        <v>7343</v>
       </c>
       <c r="F403">
-        <v>710</v>
+        <v>654</v>
       </c>
       <c r="G403" s="4">
-        <v>8.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.15">
@@ -10052,16 +10053,16 @@
         <v>5</v>
       </c>
       <c r="D404" s="2">
-        <v>14747</v>
+        <v>14600</v>
       </c>
       <c r="E404">
-        <v>13053</v>
+        <v>13038</v>
       </c>
       <c r="F404">
-        <v>1694</v>
+        <v>1562</v>
       </c>
       <c r="G404" s="4">
-        <v>11.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.15">
@@ -10075,16 +10076,16 @@
         <v>5</v>
       </c>
       <c r="D405" s="2">
-        <v>68924</v>
+        <v>68108</v>
       </c>
       <c r="E405">
-        <v>58821</v>
+        <v>58887</v>
       </c>
       <c r="F405">
-        <v>10103</v>
+        <v>9221</v>
       </c>
       <c r="G405" s="4">
-        <v>14.7</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.15">
@@ -10098,16 +10099,16 @@
         <v>5</v>
       </c>
       <c r="D406" s="2">
-        <v>35019</v>
+        <v>34651</v>
       </c>
       <c r="E406">
-        <v>31113</v>
+        <v>31067</v>
       </c>
       <c r="F406">
-        <v>3906</v>
+        <v>3584</v>
       </c>
       <c r="G406" s="4">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.15">
@@ -10121,16 +10122,16 @@
         <v>5</v>
       </c>
       <c r="D407" s="2">
-        <v>710985</v>
+        <v>705063</v>
       </c>
       <c r="E407">
-        <v>621350</v>
+        <v>622081</v>
       </c>
       <c r="F407">
-        <v>89635</v>
+        <v>82982</v>
       </c>
       <c r="G407" s="4">
-        <v>12.6</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.15">
@@ -10144,16 +10145,16 @@
         <v>5</v>
       </c>
       <c r="D408" s="2">
-        <v>6454</v>
+        <v>6408</v>
       </c>
       <c r="E408">
-        <v>5874</v>
+        <v>5878</v>
       </c>
       <c r="F408">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="G408" s="4">
-        <v>9</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.15">
@@ -10167,16 +10168,16 @@
         <v>5</v>
       </c>
       <c r="D409" s="2">
-        <v>61736</v>
+        <v>61054</v>
       </c>
       <c r="E409">
-        <v>53429</v>
+        <v>53415</v>
       </c>
       <c r="F409">
-        <v>8307</v>
+        <v>7639</v>
       </c>
       <c r="G409" s="4">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.15">
@@ -10190,16 +10191,16 @@
         <v>5</v>
       </c>
       <c r="D410" s="2">
-        <v>15793</v>
+        <v>15668</v>
       </c>
       <c r="E410">
-        <v>14446</v>
+        <v>14429</v>
       </c>
       <c r="F410">
-        <v>1347</v>
+        <v>1239</v>
       </c>
       <c r="G410" s="4">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.15">
@@ -10213,16 +10214,16 @@
         <v>5</v>
       </c>
       <c r="D411" s="2">
-        <v>5012</v>
+        <v>5009</v>
       </c>
       <c r="E411">
-        <v>4636</v>
+        <v>4655</v>
       </c>
       <c r="F411">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="G411" s="4">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.15">
@@ -10236,16 +10237,16 @@
         <v>5</v>
       </c>
       <c r="D412" s="2">
-        <v>2557</v>
+        <v>2543</v>
       </c>
       <c r="E412">
-        <v>2410</v>
+        <v>2407</v>
       </c>
       <c r="F412">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G412" s="4">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.15">
@@ -10259,16 +10260,16 @@
         <v>5</v>
       </c>
       <c r="D413" s="2">
-        <v>151249</v>
+        <v>148317</v>
       </c>
       <c r="E413">
-        <v>120130</v>
+        <v>120387</v>
       </c>
       <c r="F413">
-        <v>31119</v>
+        <v>27930</v>
       </c>
       <c r="G413" s="4">
-        <v>20.6</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.15">
@@ -10282,16 +10283,16 @@
         <v>5</v>
       </c>
       <c r="D414" s="2">
-        <v>330990</v>
+        <v>327399</v>
       </c>
       <c r="E414">
-        <v>284518</v>
+        <v>284812</v>
       </c>
       <c r="F414">
-        <v>46472</v>
+        <v>42587</v>
       </c>
       <c r="G414" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.15">
@@ -10305,16 +10306,16 @@
         <v>5</v>
       </c>
       <c r="D415" s="2">
-        <v>140009</v>
+        <v>139673</v>
       </c>
       <c r="E415">
-        <v>127719</v>
+        <v>128270</v>
       </c>
       <c r="F415">
-        <v>12290</v>
+        <v>11403</v>
       </c>
       <c r="G415" s="4">
-        <v>8.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.15">
@@ -10328,16 +10329,16 @@
         <v>5</v>
       </c>
       <c r="D416" s="2">
-        <v>15385</v>
+        <v>15285</v>
       </c>
       <c r="E416">
-        <v>13859</v>
+        <v>13888</v>
       </c>
       <c r="F416">
-        <v>1526</v>
+        <v>1397</v>
       </c>
       <c r="G416" s="4">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.15">
@@ -10351,16 +10352,16 @@
         <v>5</v>
       </c>
       <c r="D417" s="2">
-        <v>2347</v>
+        <v>2344</v>
       </c>
       <c r="E417">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="F417">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G417" s="4">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.15">
@@ -10374,16 +10375,16 @@
         <v>5</v>
       </c>
       <c r="D418" s="2">
-        <v>6848</v>
+        <v>6798</v>
       </c>
       <c r="E418">
-        <v>6304</v>
+        <v>6288</v>
       </c>
       <c r="F418">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="G418" s="4">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.15">
@@ -10397,16 +10398,16 @@
         <v>5</v>
       </c>
       <c r="D419" s="2">
-        <v>167298</v>
+        <v>165671</v>
       </c>
       <c r="E419">
-        <v>145770</v>
+        <v>146042</v>
       </c>
       <c r="F419">
-        <v>21528</v>
+        <v>19629</v>
       </c>
       <c r="G419" s="4">
-        <v>12.9</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.15">
@@ -10420,16 +10421,16 @@
         <v>5</v>
       </c>
       <c r="D420" s="2">
-        <v>132646</v>
+        <v>132803</v>
       </c>
       <c r="E420">
-        <v>117172</v>
+        <v>118618</v>
       </c>
       <c r="F420">
-        <v>15474</v>
+        <v>14185</v>
       </c>
       <c r="G420" s="4">
-        <v>11.7</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.15">
@@ -10443,16 +10444,16 @@
         <v>5</v>
       </c>
       <c r="D421" s="2">
-        <v>70467</v>
+        <v>69955</v>
       </c>
       <c r="E421">
-        <v>62468</v>
+        <v>62659</v>
       </c>
       <c r="F421">
-        <v>7999</v>
+        <v>7296</v>
       </c>
       <c r="G421" s="4">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.15">
@@ -10466,16 +10467,16 @@
         <v>5</v>
       </c>
       <c r="D422" s="2">
-        <v>1212569</v>
+        <v>1220976</v>
       </c>
       <c r="E422">
-        <v>1075744</v>
+        <v>1074907</v>
       </c>
       <c r="F422">
-        <v>136825</v>
+        <v>146069</v>
       </c>
       <c r="G422" s="4">
-        <v>11.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.15">
@@ -10489,16 +10490,16 @@
         <v>5</v>
       </c>
       <c r="D423" s="2">
-        <v>49703</v>
+        <v>48916</v>
       </c>
       <c r="E423">
-        <v>40913</v>
+        <v>40866</v>
       </c>
       <c r="F423">
-        <v>8790</v>
+        <v>8050</v>
       </c>
       <c r="G423" s="4">
-        <v>17.7</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.15">
@@ -10512,16 +10513,16 @@
         <v>5</v>
       </c>
       <c r="D424" s="2">
-        <v>38466</v>
+        <v>38382</v>
       </c>
       <c r="E424">
-        <v>34247</v>
+        <v>34482</v>
       </c>
       <c r="F424">
-        <v>4219</v>
+        <v>3900</v>
       </c>
       <c r="G424" s="4">
-        <v>11</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.15">
@@ -10535,16 +10536,16 @@
         <v>5</v>
       </c>
       <c r="D425" s="2">
-        <v>89452</v>
+        <v>89355</v>
       </c>
       <c r="E425">
-        <v>80018</v>
+        <v>80808</v>
       </c>
       <c r="F425">
-        <v>9434</v>
+        <v>8547</v>
       </c>
       <c r="G425" s="4">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.15">
@@ -10558,16 +10559,16 @@
         <v>5</v>
       </c>
       <c r="D426" s="2">
-        <v>16257</v>
+        <v>16124</v>
       </c>
       <c r="E426">
-        <v>14912</v>
+        <v>14894</v>
       </c>
       <c r="F426">
-        <v>1345</v>
+        <v>1230</v>
       </c>
       <c r="G426" s="4">
-        <v>8.3000000000000007</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.15">
@@ -10581,16 +10582,16 @@
         <v>5</v>
       </c>
       <c r="D427" s="2">
-        <v>750149</v>
+        <v>736927</v>
       </c>
       <c r="E427">
-        <v>575780</v>
+        <v>577053</v>
       </c>
       <c r="F427">
-        <v>174369</v>
+        <v>159874</v>
       </c>
       <c r="G427" s="4">
-        <v>23.2</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.15">
@@ -10604,16 +10605,16 @@
         <v>5</v>
       </c>
       <c r="D428" s="2">
-        <v>201062</v>
+        <v>195685</v>
       </c>
       <c r="E428">
-        <v>138564</v>
+        <v>138872</v>
       </c>
       <c r="F428">
-        <v>62498</v>
+        <v>56813</v>
       </c>
       <c r="G428" s="4">
-        <v>31.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.15">
@@ -10627,16 +10628,16 @@
         <v>5</v>
       </c>
       <c r="D429" s="2">
-        <v>682852</v>
+        <v>675742</v>
       </c>
       <c r="E429">
-        <v>586317</v>
+        <v>585813</v>
       </c>
       <c r="F429">
-        <v>96535</v>
+        <v>89929</v>
       </c>
       <c r="G429" s="4">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.15">
@@ -10650,16 +10651,16 @@
         <v>5</v>
       </c>
       <c r="D430" s="2">
-        <v>227224</v>
+        <v>224764</v>
       </c>
       <c r="E430">
-        <v>196324</v>
+        <v>196551</v>
       </c>
       <c r="F430">
-        <v>30900</v>
+        <v>28213</v>
       </c>
       <c r="G430" s="4">
-        <v>13.6</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.15">
@@ -10673,16 +10674,16 @@
         <v>5</v>
       </c>
       <c r="D431" s="2">
-        <v>472804</v>
+        <v>467996</v>
       </c>
       <c r="E431">
-        <v>409541</v>
+        <v>410020</v>
       </c>
       <c r="F431">
-        <v>63263</v>
+        <v>57976</v>
       </c>
       <c r="G431" s="4">
-        <v>13.4</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.15">
@@ -10696,16 +10697,16 @@
         <v>5</v>
       </c>
       <c r="D432" s="2">
-        <v>315084</v>
+        <v>308461</v>
       </c>
       <c r="E432">
-        <v>255043</v>
+        <v>254055</v>
       </c>
       <c r="F432">
-        <v>60041</v>
+        <v>54406</v>
       </c>
       <c r="G432" s="4">
-        <v>19.100000000000001</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.15">
@@ -10719,16 +10720,16 @@
         <v>5</v>
       </c>
       <c r="D433" s="2">
-        <v>24710</v>
+        <v>24534</v>
       </c>
       <c r="E433">
-        <v>21852</v>
+        <v>21869</v>
       </c>
       <c r="F433">
-        <v>2858</v>
+        <v>2665</v>
       </c>
       <c r="G433" s="4">
-        <v>11.6</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.15">
@@ -10742,16 +10743,16 @@
         <v>5</v>
       </c>
       <c r="D434" s="2">
-        <v>123593</v>
+        <v>123180</v>
       </c>
       <c r="E434">
-        <v>110587</v>
+        <v>111333</v>
       </c>
       <c r="F434">
-        <v>13006</v>
+        <v>11847</v>
       </c>
       <c r="G434" s="4">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.15">
@@ -10765,16 +10766,16 @@
         <v>5</v>
       </c>
       <c r="D435" s="2">
-        <v>140816</v>
+        <v>139648</v>
       </c>
       <c r="E435">
-        <v>121313</v>
+        <v>121701</v>
       </c>
       <c r="F435">
-        <v>19503</v>
+        <v>17947</v>
       </c>
       <c r="G435" s="4">
-        <v>13.8</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.15">
@@ -10788,16 +10789,16 @@
         <v>5</v>
       </c>
       <c r="D436" s="2">
-        <v>75774</v>
+        <v>75183</v>
       </c>
       <c r="E436">
-        <v>68531</v>
+        <v>68679</v>
       </c>
       <c r="F436">
-        <v>7243</v>
+        <v>6504</v>
       </c>
       <c r="G436" s="4">
-        <v>9.6</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.15">
@@ -10811,16 +10812,16 @@
         <v>5</v>
       </c>
       <c r="D437" s="2">
-        <v>176595</v>
+        <v>174734</v>
       </c>
       <c r="E437">
-        <v>152642</v>
+        <v>152914</v>
       </c>
       <c r="F437">
-        <v>23953</v>
+        <v>21820</v>
       </c>
       <c r="G437" s="4">
-        <v>13.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.15">
@@ -10834,16 +10835,16 @@
         <v>5</v>
       </c>
       <c r="D438" s="2">
-        <v>225667</v>
+        <v>223471</v>
       </c>
       <c r="E438">
-        <v>192945</v>
+        <v>193365</v>
       </c>
       <c r="F438">
-        <v>32722</v>
+        <v>30106</v>
       </c>
       <c r="G438" s="4">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.15">
@@ -10857,16 +10858,16 @@
         <v>5</v>
       </c>
       <c r="D439" s="2">
-        <v>31354</v>
+        <v>30844</v>
       </c>
       <c r="E439">
-        <v>27305</v>
+        <v>27174</v>
       </c>
       <c r="F439">
-        <v>4049</v>
+        <v>3670</v>
       </c>
       <c r="G439" s="4">
-        <v>12.9</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.15">
@@ -10880,16 +10881,16 @@
         <v>5</v>
       </c>
       <c r="D440" s="2">
-        <v>16652</v>
+        <v>16501</v>
       </c>
       <c r="E440">
-        <v>15203</v>
+        <v>15186</v>
       </c>
       <c r="F440">
-        <v>1449</v>
+        <v>1315</v>
       </c>
       <c r="G440" s="4">
-        <v>8.6999999999999993</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.15">
@@ -10903,16 +10904,16 @@
         <v>5</v>
       </c>
       <c r="D441" s="2">
-        <v>7715</v>
+        <v>7670</v>
       </c>
       <c r="E441">
-        <v>7024</v>
+        <v>7016</v>
       </c>
       <c r="F441">
-        <v>691</v>
+        <v>654</v>
       </c>
       <c r="G441" s="4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.15">
@@ -10926,16 +10927,16 @@
         <v>5</v>
       </c>
       <c r="D442" s="2">
-        <v>4177</v>
+        <v>4150</v>
       </c>
       <c r="E442">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="F442">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="G442" s="4">
-        <v>7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.15">
@@ -10949,16 +10950,16 @@
         <v>5</v>
       </c>
       <c r="D443" s="2">
-        <v>242391</v>
+        <v>240021</v>
       </c>
       <c r="E443">
-        <v>207446</v>
+        <v>208020</v>
       </c>
       <c r="F443">
-        <v>34945</v>
+        <v>32001</v>
       </c>
       <c r="G443" s="4">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.15">
@@ -10972,16 +10973,16 @@
         <v>5</v>
       </c>
       <c r="D444" s="2">
-        <v>13333</v>
+        <v>13296</v>
       </c>
       <c r="E444">
-        <v>12298</v>
+        <v>12351</v>
       </c>
       <c r="F444">
-        <v>1035</v>
+        <v>945</v>
       </c>
       <c r="G444" s="4">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.15">
@@ -10995,16 +10996,16 @@
         <v>5</v>
       </c>
       <c r="D445" s="2">
-        <v>29619</v>
+        <v>29519</v>
       </c>
       <c r="E445">
-        <v>26044</v>
+        <v>26291</v>
       </c>
       <c r="F445">
-        <v>3575</v>
+        <v>3228</v>
       </c>
       <c r="G445" s="4">
-        <v>12.1</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.15">
@@ -11018,16 +11019,16 @@
         <v>5</v>
       </c>
       <c r="D446" s="2">
-        <v>8843</v>
+        <v>8774</v>
       </c>
       <c r="E446">
-        <v>7987</v>
+        <v>7984</v>
       </c>
       <c r="F446">
-        <v>856</v>
+        <v>790</v>
       </c>
       <c r="G446" s="4">
-        <v>9.6999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.15">
@@ -11041,16 +11042,16 @@
         <v>5</v>
       </c>
       <c r="D447" s="2">
-        <v>330990</v>
+        <v>327399</v>
       </c>
       <c r="E447">
-        <v>284518</v>
+        <v>284812</v>
       </c>
       <c r="F447">
-        <v>46472</v>
+        <v>42587</v>
       </c>
       <c r="G447" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.15">
@@ -11064,16 +11065,16 @@
         <v>5</v>
       </c>
       <c r="D448" s="2">
-        <v>119071</v>
+        <v>118874</v>
       </c>
       <c r="E448">
-        <v>106062</v>
+        <v>107099</v>
       </c>
       <c r="F448">
-        <v>13009</v>
+        <v>11775</v>
       </c>
       <c r="G448" s="4">
-        <v>10.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.15">
@@ -11087,16 +11088,16 @@
         <v>5</v>
       </c>
       <c r="D449" s="2">
-        <v>287349</v>
+        <v>284512</v>
       </c>
       <c r="E449">
-        <v>245729</v>
+        <v>246409</v>
       </c>
       <c r="F449">
-        <v>41620</v>
+        <v>38103</v>
       </c>
       <c r="G449" s="4">
-        <v>14.5</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.15">
@@ -11110,16 +11111,16 @@
         <v>5</v>
       </c>
       <c r="D450" s="2">
-        <v>132930</v>
+        <v>132317</v>
       </c>
       <c r="E450">
-        <v>121381</v>
+        <v>121788</v>
       </c>
       <c r="F450">
-        <v>11549</v>
+        <v>10529</v>
       </c>
       <c r="G450" s="4">
-        <v>8.6999999999999993</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.15">
@@ -11133,16 +11134,16 @@
         <v>5</v>
       </c>
       <c r="D451" s="2">
-        <v>46357</v>
+        <v>45788</v>
       </c>
       <c r="E451">
-        <v>39714</v>
+        <v>39706</v>
       </c>
       <c r="F451">
-        <v>6643</v>
+        <v>6082</v>
       </c>
       <c r="G451" s="4">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.15">
@@ -11156,16 +11157,16 @@
         <v>5</v>
       </c>
       <c r="D452" s="2">
-        <v>734111</v>
+        <v>732457</v>
       </c>
       <c r="E452">
-        <v>652157</v>
+        <v>656634</v>
       </c>
       <c r="F452">
-        <v>81954</v>
+        <v>75823</v>
       </c>
       <c r="G452" s="4">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.15">
@@ -11179,16 +11180,16 @@
         <v>5</v>
       </c>
       <c r="D453" s="2">
-        <v>315084</v>
+        <v>308461</v>
       </c>
       <c r="E453">
-        <v>255043</v>
+        <v>254055</v>
       </c>
       <c r="F453">
-        <v>60041</v>
+        <v>54406</v>
       </c>
       <c r="G453" s="4">
-        <v>19.100000000000001</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.15">
@@ -11202,16 +11203,16 @@
         <v>5</v>
       </c>
       <c r="D454" s="2">
-        <v>2884139</v>
+        <v>2876540</v>
       </c>
       <c r="E454">
-        <v>2493027</v>
+        <v>2491834</v>
       </c>
       <c r="F454">
-        <v>391112</v>
+        <v>384706</v>
       </c>
       <c r="G454" s="4">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.15">
@@ -11225,16 +11226,16 @@
         <v>5</v>
       </c>
       <c r="D455" s="2">
-        <v>168696</v>
+        <v>165796</v>
       </c>
       <c r="E455">
-        <v>146670</v>
+        <v>145329</v>
       </c>
       <c r="F455">
-        <v>22026</v>
+        <v>20467</v>
       </c>
       <c r="G455" s="4">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.15">
@@ -11248,16 +11249,16 @@
         <v>5</v>
       </c>
       <c r="D456" s="2">
-        <v>343893</v>
+        <v>340405</v>
       </c>
       <c r="E456">
-        <v>298412</v>
+        <v>298956</v>
       </c>
       <c r="F456">
-        <v>45481</v>
+        <v>41449</v>
       </c>
       <c r="G456" s="4">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.15">
@@ -11271,16 +11272,16 @@
         <v>5</v>
       </c>
       <c r="D457" s="2">
-        <v>132646</v>
+        <v>132803</v>
       </c>
       <c r="E457">
-        <v>117172</v>
+        <v>118618</v>
       </c>
       <c r="F457">
-        <v>15474</v>
+        <v>14185</v>
       </c>
       <c r="G457" s="4">
-        <v>11.7</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.15">
@@ -11294,16 +11295,16 @@
         <v>5</v>
       </c>
       <c r="D458" s="2">
-        <v>1328127</v>
+        <v>1304400</v>
       </c>
       <c r="E458">
-        <v>1027419</v>
+        <v>1029677</v>
       </c>
       <c r="F458">
-        <v>300708</v>
+        <v>274723</v>
       </c>
       <c r="G458" s="4">
-        <v>22.6</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.15">
@@ -11317,16 +11318,16 @@
         <v>5</v>
       </c>
       <c r="D459" s="2">
-        <v>272891</v>
+        <v>270705</v>
       </c>
       <c r="E459">
-        <v>238558</v>
+        <v>239436</v>
       </c>
       <c r="F459">
-        <v>34333</v>
+        <v>31269</v>
       </c>
       <c r="G459" s="4">
-        <v>12.6</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.15">
@@ -11340,16 +11341,16 @@
         <v>5</v>
       </c>
       <c r="D460" s="2">
-        <v>84572</v>
+        <v>83747</v>
       </c>
       <c r="E460">
-        <v>75056</v>
+        <v>75149</v>
       </c>
       <c r="F460">
-        <v>9516</v>
+        <v>8598</v>
       </c>
       <c r="G460" s="4">
-        <v>11.3</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.15">
@@ -11363,16 +11364,16 @@
         <v>5</v>
       </c>
       <c r="D461" s="2">
-        <v>212130</v>
+        <v>210410</v>
       </c>
       <c r="E461">
-        <v>188778</v>
+        <v>189185</v>
       </c>
       <c r="F461">
-        <v>23352</v>
+        <v>21225</v>
       </c>
       <c r="G461" s="4">
-        <v>11</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.15">
@@ -11386,16 +11387,16 @@
         <v>5</v>
       </c>
       <c r="D462" s="2">
-        <v>211283</v>
+        <v>209603</v>
       </c>
       <c r="E462">
-        <v>183781</v>
+        <v>184360</v>
       </c>
       <c r="F462">
-        <v>27502</v>
+        <v>25243</v>
       </c>
       <c r="G462" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.15">
@@ -11409,16 +11410,16 @@
         <v>5</v>
       </c>
       <c r="D463" s="2">
-        <v>68435</v>
+        <v>67918</v>
       </c>
       <c r="E463">
-        <v>59218</v>
+        <v>59443</v>
       </c>
       <c r="F463">
-        <v>9217</v>
+        <v>8475</v>
       </c>
       <c r="G463" s="4">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.15">
@@ -11432,16 +11433,16 @@
         <v>5</v>
       </c>
       <c r="D464" s="2">
-        <v>61736</v>
+        <v>61054</v>
       </c>
       <c r="E464">
-        <v>53429</v>
+        <v>53415</v>
       </c>
       <c r="F464">
-        <v>8307</v>
+        <v>7639</v>
       </c>
       <c r="G464" s="4">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.15">
@@ -11455,16 +11456,16 @@
         <v>5</v>
       </c>
       <c r="D465" s="2">
-        <v>35019</v>
+        <v>34651</v>
       </c>
       <c r="E465">
-        <v>31113</v>
+        <v>31067</v>
       </c>
       <c r="F465">
-        <v>3906</v>
+        <v>3584</v>
       </c>
       <c r="G465" s="4">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.15">
@@ -11478,16 +11479,16 @@
         <v>5</v>
       </c>
       <c r="D466" s="2">
-        <v>175498</v>
+        <v>175098</v>
       </c>
       <c r="E466">
-        <v>160299</v>
+        <v>160984</v>
       </c>
       <c r="F466">
-        <v>15199</v>
+        <v>14114</v>
       </c>
       <c r="G466" s="4">
-        <v>8.6999999999999993</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.15">
@@ -11501,16 +11502,16 @@
         <v>5</v>
       </c>
       <c r="D467" s="2">
-        <v>1479937</v>
+        <v>1465931</v>
       </c>
       <c r="E467">
-        <v>1286036</v>
+        <v>1287539</v>
       </c>
       <c r="F467">
-        <v>193901</v>
+        <v>178392</v>
       </c>
       <c r="G467" s="4">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.15">
@@ -11524,16 +11525,16 @@
         <v>5</v>
       </c>
       <c r="D468" s="2">
-        <v>31354</v>
+        <v>30844</v>
       </c>
       <c r="E468">
-        <v>27305</v>
+        <v>27174</v>
       </c>
       <c r="F468">
-        <v>4049</v>
+        <v>3670</v>
       </c>
       <c r="G468" s="4">
-        <v>12.9</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.15">
@@ -11547,16 +11548,16 @@
         <v>5</v>
       </c>
       <c r="D469" s="2">
-        <v>988718</v>
+        <v>979822</v>
       </c>
       <c r="E469">
-        <v>830966</v>
+        <v>831114</v>
       </c>
       <c r="F469">
-        <v>157752</v>
+        <v>148708</v>
       </c>
       <c r="G469" s="4">
-        <v>16</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.15">
@@ -11570,16 +11571,16 @@
         <v>5</v>
       </c>
       <c r="D470" s="2">
-        <v>1212569</v>
+        <v>1220976</v>
       </c>
       <c r="E470">
-        <v>1075744</v>
+        <v>1074907</v>
       </c>
       <c r="F470">
-        <v>136825</v>
+        <v>146069</v>
       </c>
       <c r="G470" s="4">
-        <v>11.3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.15">
@@ -11593,674 +11594,2156 @@
         <v>5</v>
       </c>
       <c r="D471" s="2">
-        <v>682852</v>
+        <v>675742</v>
       </c>
       <c r="E471" s="3">
-        <v>586317</v>
+        <v>585813</v>
       </c>
       <c r="F471" s="3">
-        <v>96535</v>
+        <v>89929</v>
       </c>
       <c r="G471" s="4">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A472" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B472" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C472" s="7">
+        <v>6</v>
+      </c>
+      <c r="D472" s="2">
+        <v>9789000</v>
+      </c>
+      <c r="E472" s="3">
+        <v>8744000</v>
+      </c>
+      <c r="F472" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="G472" s="4">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A473" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B473" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C473" s="7">
+        <v>6</v>
+      </c>
+      <c r="D473" s="2">
+        <v>126797</v>
+      </c>
+      <c r="E473">
+        <v>118266</v>
+      </c>
+      <c r="F473">
+        <v>8531</v>
+      </c>
+      <c r="G473" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A474" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B474" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C474" s="7">
+        <v>6</v>
+      </c>
+      <c r="D474" s="2">
+        <v>11073</v>
+      </c>
+      <c r="E474">
+        <v>10392</v>
+      </c>
+      <c r="F474">
+        <v>681</v>
+      </c>
+      <c r="G474" s="4">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A475" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B475" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C475" s="7">
+        <v>6</v>
+      </c>
+      <c r="D475" s="2">
+        <v>80163</v>
+      </c>
+      <c r="E475">
+        <v>74501</v>
+      </c>
+      <c r="F475">
+        <v>5662</v>
+      </c>
+      <c r="G475" s="4">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A476" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B476" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C476" s="7">
+        <v>6</v>
+      </c>
+      <c r="D476" s="2">
+        <v>10246</v>
+      </c>
+      <c r="E476">
+        <v>9549</v>
+      </c>
+      <c r="F476">
+        <v>697</v>
+      </c>
+      <c r="G476" s="4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A477" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B477" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C477" s="7">
+        <v>6</v>
+      </c>
+      <c r="D477" s="2">
+        <v>275711</v>
+      </c>
+      <c r="E477">
+        <v>252245</v>
+      </c>
+      <c r="F477">
+        <v>23466</v>
+      </c>
+      <c r="G477" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A478" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B478" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C478" s="7">
+        <v>6</v>
+      </c>
+      <c r="D478" s="2">
+        <v>992435</v>
+      </c>
+      <c r="E478">
+        <v>875315</v>
+      </c>
+      <c r="F478">
+        <v>117120</v>
+      </c>
+      <c r="G478" s="4">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A479" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B479" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C479" s="7">
+        <v>6</v>
+      </c>
+      <c r="D479" s="2">
+        <v>4455</v>
+      </c>
+      <c r="E479">
+        <v>4163</v>
+      </c>
+      <c r="F479">
+        <v>292</v>
+      </c>
+      <c r="G479" s="4">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A480" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B480" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C480" s="7">
+        <v>6</v>
+      </c>
+      <c r="D480" s="2">
+        <v>68617</v>
+      </c>
+      <c r="E480">
+        <v>62141</v>
+      </c>
+      <c r="F480">
+        <v>6476</v>
+      </c>
+      <c r="G480" s="4">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A481" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B481" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C481" s="7">
+        <v>6</v>
+      </c>
+      <c r="D481" s="2">
+        <v>45375</v>
+      </c>
+      <c r="E481">
+        <v>40729</v>
+      </c>
+      <c r="F481">
+        <v>4646</v>
+      </c>
+      <c r="G481" s="4">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A482" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B482" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C482" s="7">
+        <v>6</v>
+      </c>
+      <c r="D482" s="2">
+        <v>101413</v>
+      </c>
+      <c r="E482">
+        <v>94492</v>
+      </c>
+      <c r="F482">
+        <v>6921</v>
+      </c>
+      <c r="G482" s="4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A483" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B483" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C483" s="7">
+        <v>6</v>
+      </c>
+      <c r="D483" s="2">
+        <v>167339</v>
+      </c>
+      <c r="E483">
+        <v>151125</v>
+      </c>
+      <c r="F483">
+        <v>16214</v>
+      </c>
+      <c r="G483" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A484" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B484" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C484" s="7">
+        <v>6</v>
+      </c>
+      <c r="D484" s="2">
+        <v>27867</v>
+      </c>
+      <c r="E484">
+        <v>25921</v>
+      </c>
+      <c r="F484">
+        <v>1946</v>
+      </c>
+      <c r="G484" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A485" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B485" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C485" s="7">
+        <v>6</v>
+      </c>
+      <c r="D485" s="2">
+        <v>13872</v>
+      </c>
+      <c r="E485">
+        <v>13048</v>
+      </c>
+      <c r="F485">
+        <v>824</v>
+      </c>
+      <c r="G485" s="4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A486" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B486" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C486" s="7">
+        <v>6</v>
+      </c>
+      <c r="D486" s="2">
+        <v>5277</v>
+      </c>
+      <c r="E486">
+        <v>4913</v>
+      </c>
+      <c r="F486">
+        <v>364</v>
+      </c>
+      <c r="G486" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A487" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B487" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C487" s="7">
+        <v>6</v>
+      </c>
+      <c r="D487" s="2">
+        <v>471050</v>
+      </c>
+      <c r="E487">
+        <v>430702</v>
+      </c>
+      <c r="F487">
+        <v>40348</v>
+      </c>
+      <c r="G487" s="4">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A488" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B488" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C488" s="7">
+        <v>6</v>
+      </c>
+      <c r="D488" s="2">
+        <v>137655</v>
+      </c>
+      <c r="E488">
+        <v>126738</v>
+      </c>
+      <c r="F488">
+        <v>10917</v>
+      </c>
+      <c r="G488" s="4">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A489" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B489" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C489" s="7">
+        <v>6</v>
+      </c>
+      <c r="D489" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E489">
+        <v>40629</v>
+      </c>
+      <c r="F489">
+        <v>4371</v>
+      </c>
+      <c r="G489" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A490" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B490" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C490" s="7">
+        <v>6</v>
+      </c>
+      <c r="D490" s="2">
+        <v>4253</v>
+      </c>
+      <c r="E490">
+        <v>3976</v>
+      </c>
+      <c r="F490">
+        <v>277</v>
+      </c>
+      <c r="G490" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A491" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B491" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C491" s="7">
+        <v>6</v>
+      </c>
+      <c r="D491" s="2">
+        <v>17910</v>
+      </c>
+      <c r="E491">
+        <v>16544</v>
+      </c>
+      <c r="F491">
+        <v>1366</v>
+      </c>
+      <c r="G491" s="4">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A492" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B492" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C492" s="7">
+        <v>6</v>
+      </c>
+      <c r="D492" s="2">
+        <v>6436</v>
+      </c>
+      <c r="E492">
+        <v>6054</v>
+      </c>
+      <c r="F492">
+        <v>382</v>
+      </c>
+      <c r="G492" s="4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A493" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B493" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C493" s="7">
+        <v>6</v>
+      </c>
+      <c r="D493" s="2">
+        <v>4785</v>
+      </c>
+      <c r="E493">
+        <v>4428</v>
+      </c>
+      <c r="F493">
+        <v>357</v>
+      </c>
+      <c r="G493" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A494" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B494" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C494" s="7">
+        <v>6</v>
+      </c>
+      <c r="D494" s="2">
+        <v>5429</v>
+      </c>
+      <c r="E494">
+        <v>5050</v>
+      </c>
+      <c r="F494">
+        <v>379</v>
+      </c>
+      <c r="G494" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A495" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B495" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C495" s="7">
+        <v>6</v>
+      </c>
+      <c r="D495" s="2">
+        <v>4192</v>
+      </c>
+      <c r="E495">
+        <v>3854</v>
+      </c>
+      <c r="F495">
+        <v>338</v>
+      </c>
+      <c r="G495" s="4">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A496" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B496" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C496" s="7">
+        <v>6</v>
+      </c>
+      <c r="D496" s="2">
+        <v>7761</v>
+      </c>
+      <c r="E496">
+        <v>7102</v>
+      </c>
+      <c r="F496">
+        <v>659</v>
+      </c>
+      <c r="G496" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A497" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B497" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C497" s="7">
+        <v>6</v>
+      </c>
+      <c r="D497" s="2">
+        <v>13833</v>
+      </c>
+      <c r="E497">
+        <v>12323</v>
+      </c>
+      <c r="F497">
+        <v>1510</v>
+      </c>
+      <c r="G497" s="4">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A498" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B498" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C498" s="7">
+        <v>6</v>
+      </c>
+      <c r="D498" s="2">
+        <v>68857</v>
+      </c>
+      <c r="E498">
+        <v>61834</v>
+      </c>
+      <c r="F498">
+        <v>7023</v>
+      </c>
+      <c r="G498" s="4">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A499" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B499" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C499" s="7">
+        <v>6</v>
+      </c>
+      <c r="D499" s="2">
+        <v>34805</v>
+      </c>
+      <c r="E499">
+        <v>31601</v>
+      </c>
+      <c r="F499">
+        <v>3204</v>
+      </c>
+      <c r="G499" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A500" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B500" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C500" s="7">
+        <v>6</v>
+      </c>
+      <c r="D500" s="2">
+        <v>716883</v>
+      </c>
+      <c r="E500">
+        <v>651328</v>
+      </c>
+      <c r="F500">
+        <v>65555</v>
+      </c>
+      <c r="G500" s="4">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A501" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B501" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C501" s="7">
+        <v>6</v>
+      </c>
+      <c r="D501" s="2">
+        <v>6516</v>
+      </c>
+      <c r="E501">
+        <v>6081</v>
+      </c>
+      <c r="F501">
+        <v>435</v>
+      </c>
+      <c r="G501" s="4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A502" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B502" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C502" s="7">
+        <v>6</v>
+      </c>
+      <c r="D502" s="2">
+        <v>61039</v>
+      </c>
+      <c r="E502">
+        <v>55128</v>
+      </c>
+      <c r="F502">
+        <v>5911</v>
+      </c>
+      <c r="G502" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A503" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B503" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C503" s="7">
+        <v>6</v>
+      </c>
+      <c r="D503" s="2">
+        <v>15601</v>
+      </c>
+      <c r="E503">
+        <v>14497</v>
+      </c>
+      <c r="F503">
+        <v>1104</v>
+      </c>
+      <c r="G503" s="4">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A504" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B504" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C504" s="7">
+        <v>6</v>
+      </c>
+      <c r="D504" s="2">
+        <v>5109</v>
+      </c>
+      <c r="E504">
+        <v>4762</v>
+      </c>
+      <c r="F504">
+        <v>347</v>
+      </c>
+      <c r="G504" s="4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A505" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B505" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C505" s="7">
+        <v>6</v>
+      </c>
+      <c r="D505" s="2">
+        <v>2551</v>
+      </c>
+      <c r="E505">
+        <v>2425</v>
+      </c>
+      <c r="F505">
+        <v>126</v>
+      </c>
+      <c r="G505" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A506" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B506" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C506" s="7">
+        <v>6</v>
+      </c>
+      <c r="D506" s="2">
+        <v>148228</v>
+      </c>
+      <c r="E506">
+        <v>127098</v>
+      </c>
+      <c r="F506">
+        <v>21130</v>
+      </c>
+      <c r="G506" s="4">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A507" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B507" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C507" s="7">
+        <v>6</v>
+      </c>
+      <c r="D507" s="2">
+        <v>333525</v>
+      </c>
+      <c r="E507">
+        <v>300961</v>
+      </c>
+      <c r="F507">
+        <v>32564</v>
+      </c>
+      <c r="G507" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A508" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B508" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C508" s="7">
+        <v>6</v>
+      </c>
+      <c r="D508" s="2">
+        <v>141950</v>
+      </c>
+      <c r="E508">
+        <v>131759</v>
+      </c>
+      <c r="F508">
+        <v>10191</v>
+      </c>
+      <c r="G508" s="4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A509" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B509" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C509" s="7">
+        <v>6</v>
+      </c>
+      <c r="D509" s="2">
+        <v>15478</v>
+      </c>
+      <c r="E509">
+        <v>14312</v>
+      </c>
+      <c r="F509">
+        <v>1166</v>
+      </c>
+      <c r="G509" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A510" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B510" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C510" s="7">
+        <v>6</v>
+      </c>
+      <c r="D510" s="2">
+        <v>2410</v>
+      </c>
+      <c r="E510">
+        <v>2262</v>
+      </c>
+      <c r="F510">
+        <v>148</v>
+      </c>
+      <c r="G510" s="4">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A511" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B511" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C511" s="7">
+        <v>6</v>
+      </c>
+      <c r="D511" s="2">
+        <v>6963</v>
+      </c>
+      <c r="E511">
+        <v>6480</v>
+      </c>
+      <c r="F511">
+        <v>483</v>
+      </c>
+      <c r="G511" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A512" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B512" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C512" s="7">
+        <v>6</v>
+      </c>
+      <c r="D512" s="2">
+        <v>169470</v>
+      </c>
+      <c r="E512">
+        <v>154858</v>
+      </c>
+      <c r="F512">
+        <v>14612</v>
+      </c>
+      <c r="G512" s="4">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A513" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B513" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C513" s="7">
+        <v>6</v>
+      </c>
+      <c r="D513" s="2">
+        <v>133949</v>
+      </c>
+      <c r="E513">
+        <v>122557</v>
+      </c>
+      <c r="F513">
+        <v>11392</v>
+      </c>
+      <c r="G513" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A514" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B514" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C514" s="7">
+        <v>6</v>
+      </c>
+      <c r="D514" s="2">
+        <v>70946</v>
+      </c>
+      <c r="E514">
+        <v>65243</v>
+      </c>
+      <c r="F514">
+        <v>5703</v>
+      </c>
+      <c r="G514" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A515" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B515" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C515" s="7">
+        <v>6</v>
+      </c>
+      <c r="D515" s="2">
+        <v>1269957</v>
+      </c>
+      <c r="E515">
+        <v>1124302</v>
+      </c>
+      <c r="F515">
+        <v>145655</v>
+      </c>
+      <c r="G515" s="4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A516" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B516" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C516" s="7">
+        <v>6</v>
+      </c>
+      <c r="D516" s="2">
+        <v>47377</v>
+      </c>
+      <c r="E516">
+        <v>42674</v>
+      </c>
+      <c r="F516">
+        <v>4703</v>
+      </c>
+      <c r="G516" s="4">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A517" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B517" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C517" s="7">
+        <v>6</v>
+      </c>
+      <c r="D517" s="2">
+        <v>39041</v>
+      </c>
+      <c r="E517">
+        <v>36153</v>
+      </c>
+      <c r="F517">
+        <v>2888</v>
+      </c>
+      <c r="G517" s="4">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A518" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B518" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C518" s="7">
+        <v>6</v>
+      </c>
+      <c r="D518" s="2">
+        <v>91760</v>
+      </c>
+      <c r="E518">
+        <v>85931</v>
+      </c>
+      <c r="F518">
+        <v>5829</v>
+      </c>
+      <c r="G518" s="4">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A519" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B519" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C519" s="7">
+        <v>6</v>
+      </c>
+      <c r="D519" s="2">
+        <v>16015</v>
+      </c>
+      <c r="E519">
+        <v>14889</v>
+      </c>
+      <c r="F519">
+        <v>1126</v>
+      </c>
+      <c r="G519" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A520" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B520" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C520" s="7">
+        <v>6</v>
+      </c>
+      <c r="D520" s="2">
+        <v>736500</v>
+      </c>
+      <c r="E520">
+        <v>609638</v>
+      </c>
+      <c r="F520">
+        <v>126862</v>
+      </c>
+      <c r="G520" s="4">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A521" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B521" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C521" s="7">
+        <v>6</v>
+      </c>
+      <c r="D521" s="2">
+        <v>190370</v>
+      </c>
+      <c r="E521">
+        <v>146751</v>
+      </c>
+      <c r="F521">
+        <v>43619</v>
+      </c>
+      <c r="G521" s="4">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A522" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B522" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C522" s="7">
+        <v>6</v>
+      </c>
+      <c r="D522" s="2">
+        <v>678071</v>
+      </c>
+      <c r="E522">
+        <v>607538</v>
+      </c>
+      <c r="F522">
+        <v>70533</v>
+      </c>
+      <c r="G522" s="4">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A523" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B523" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C523" s="7">
+        <v>6</v>
+      </c>
+      <c r="D523" s="2">
+        <v>227635</v>
+      </c>
+      <c r="E523">
+        <v>206311</v>
+      </c>
+      <c r="F523">
+        <v>21324</v>
+      </c>
+      <c r="G523" s="4">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A524" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B524" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C524" s="7">
+        <v>6</v>
+      </c>
+      <c r="D524" s="2">
+        <v>472897</v>
+      </c>
+      <c r="E524">
+        <v>430425</v>
+      </c>
+      <c r="F524">
+        <v>42472</v>
+      </c>
+      <c r="G524" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A525" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B525" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C525" s="7">
+        <v>6</v>
+      </c>
+      <c r="D525" s="2">
+        <v>305336</v>
+      </c>
+      <c r="E525">
+        <v>262330</v>
+      </c>
+      <c r="F525">
+        <v>43006</v>
+      </c>
+      <c r="G525" s="4">
         <v>14.1</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A472" s="6"/>
-      <c r="B472" s="1"/>
-      <c r="C472" s="7"/>
-      <c r="D472" s="2"/>
-      <c r="E472" s="3"/>
-      <c r="F472" s="3"/>
-      <c r="G472" s="4"/>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A473" s="6"/>
-      <c r="B473" s="1"/>
-      <c r="C473" s="7"/>
-      <c r="D473" s="2"/>
-      <c r="G473" s="4"/>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A474" s="6"/>
-      <c r="B474" s="1"/>
-      <c r="C474" s="7"/>
-      <c r="D474" s="2"/>
-      <c r="G474" s="4"/>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A475" s="6"/>
-      <c r="B475" s="1"/>
-      <c r="C475" s="7"/>
-      <c r="D475" s="2"/>
-      <c r="G475" s="4"/>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A476" s="6"/>
-      <c r="B476" s="1"/>
-      <c r="C476" s="7"/>
-      <c r="D476" s="2"/>
-      <c r="G476" s="4"/>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A477" s="6"/>
-      <c r="B477" s="1"/>
-      <c r="C477" s="7"/>
-      <c r="D477" s="2"/>
-      <c r="G477" s="4"/>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A478" s="6"/>
-      <c r="B478" s="1"/>
-      <c r="C478" s="7"/>
-      <c r="D478" s="2"/>
-      <c r="G478" s="4"/>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A479" s="6"/>
-      <c r="B479" s="1"/>
-      <c r="C479" s="7"/>
-      <c r="D479" s="2"/>
-      <c r="G479" s="4"/>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A480" s="6"/>
-      <c r="B480" s="1"/>
-      <c r="C480" s="7"/>
-      <c r="D480" s="2"/>
-      <c r="G480" s="4"/>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A481" s="6"/>
-      <c r="B481" s="1"/>
-      <c r="C481" s="7"/>
-      <c r="D481" s="2"/>
-      <c r="G481" s="4"/>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A482" s="6"/>
-      <c r="B482" s="1"/>
-      <c r="C482" s="7"/>
-      <c r="D482" s="2"/>
-      <c r="G482" s="4"/>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A483" s="6"/>
-      <c r="B483" s="1"/>
-      <c r="C483" s="7"/>
-      <c r="D483" s="2"/>
-      <c r="G483" s="4"/>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A484" s="6"/>
-      <c r="B484" s="1"/>
-      <c r="C484" s="7"/>
-      <c r="D484" s="2"/>
-      <c r="G484" s="4"/>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A485" s="6"/>
-      <c r="B485" s="1"/>
-      <c r="C485" s="7"/>
-      <c r="D485" s="2"/>
-      <c r="G485" s="4"/>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A486" s="6"/>
-      <c r="B486" s="1"/>
-      <c r="C486" s="7"/>
-      <c r="D486" s="2"/>
-      <c r="G486" s="4"/>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A487" s="6"/>
-      <c r="B487" s="1"/>
-      <c r="C487" s="7"/>
-      <c r="D487" s="2"/>
-      <c r="G487" s="4"/>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A488" s="6"/>
-      <c r="B488" s="1"/>
-      <c r="C488" s="7"/>
-      <c r="D488" s="2"/>
-      <c r="G488" s="4"/>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A489" s="6"/>
-      <c r="B489" s="1"/>
-      <c r="C489" s="7"/>
-      <c r="D489" s="2"/>
-      <c r="G489" s="4"/>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A490" s="6"/>
-      <c r="B490" s="1"/>
-      <c r="C490" s="7"/>
-      <c r="D490" s="2"/>
-      <c r="G490" s="4"/>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A491" s="6"/>
-      <c r="B491" s="1"/>
-      <c r="C491" s="7"/>
-      <c r="D491" s="2"/>
-      <c r="G491" s="4"/>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A492" s="6"/>
-      <c r="B492" s="1"/>
-      <c r="C492" s="7"/>
-      <c r="D492" s="2"/>
-      <c r="G492" s="4"/>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A493" s="6"/>
-      <c r="B493" s="1"/>
-      <c r="C493" s="7"/>
-      <c r="D493" s="2"/>
-      <c r="G493" s="4"/>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A494" s="6"/>
-      <c r="B494" s="1"/>
-      <c r="C494" s="7"/>
-      <c r="D494" s="2"/>
-      <c r="G494" s="4"/>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A495" s="6"/>
-      <c r="B495" s="1"/>
-      <c r="C495" s="7"/>
-      <c r="D495" s="2"/>
-      <c r="G495" s="4"/>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A496" s="6"/>
-      <c r="B496" s="1"/>
-      <c r="C496" s="7"/>
-      <c r="D496" s="2"/>
-      <c r="G496" s="4"/>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A497" s="6"/>
-      <c r="B497" s="1"/>
-      <c r="C497" s="7"/>
-      <c r="D497" s="2"/>
-      <c r="G497" s="4"/>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A498" s="6"/>
-      <c r="B498" s="1"/>
-      <c r="C498" s="7"/>
-      <c r="D498" s="2"/>
-      <c r="G498" s="4"/>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A499" s="6"/>
-      <c r="B499" s="1"/>
-      <c r="C499" s="7"/>
-      <c r="D499" s="2"/>
-      <c r="G499" s="4"/>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A500" s="6"/>
-      <c r="B500" s="1"/>
-      <c r="C500" s="7"/>
-      <c r="D500" s="2"/>
-      <c r="G500" s="4"/>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A501" s="6"/>
-      <c r="B501" s="1"/>
-      <c r="C501" s="7"/>
-      <c r="D501" s="2"/>
-      <c r="G501" s="4"/>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A502" s="6"/>
-      <c r="B502" s="1"/>
-      <c r="C502" s="7"/>
-      <c r="D502" s="2"/>
-      <c r="G502" s="4"/>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A503" s="6"/>
-      <c r="B503" s="1"/>
-      <c r="C503" s="7"/>
-      <c r="D503" s="2"/>
-      <c r="G503" s="4"/>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A504" s="6"/>
-      <c r="B504" s="1"/>
-      <c r="C504" s="7"/>
-      <c r="D504" s="2"/>
-      <c r="G504" s="4"/>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A505" s="6"/>
-      <c r="B505" s="1"/>
-      <c r="C505" s="7"/>
-      <c r="D505" s="2"/>
-      <c r="G505" s="4"/>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A506" s="6"/>
-      <c r="B506" s="1"/>
-      <c r="C506" s="7"/>
-      <c r="D506" s="2"/>
-      <c r="G506" s="4"/>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A507" s="6"/>
-      <c r="B507" s="1"/>
-      <c r="C507" s="7"/>
-      <c r="D507" s="2"/>
-      <c r="G507" s="4"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A508" s="6"/>
-      <c r="B508" s="1"/>
-      <c r="C508" s="7"/>
-      <c r="D508" s="2"/>
-      <c r="G508" s="4"/>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A509" s="6"/>
-      <c r="B509" s="1"/>
-      <c r="C509" s="7"/>
-      <c r="D509" s="2"/>
-      <c r="G509" s="4"/>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A510" s="6"/>
-      <c r="B510" s="1"/>
-      <c r="C510" s="7"/>
-      <c r="D510" s="2"/>
-      <c r="G510" s="4"/>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A511" s="6"/>
-      <c r="B511" s="1"/>
-      <c r="C511" s="7"/>
-      <c r="D511" s="2"/>
-      <c r="G511" s="4"/>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A512" s="6"/>
-      <c r="B512" s="1"/>
-      <c r="C512" s="7"/>
-      <c r="D512" s="2"/>
-      <c r="G512" s="4"/>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A513" s="6"/>
-      <c r="B513" s="1"/>
-      <c r="C513" s="7"/>
-      <c r="D513" s="2"/>
-      <c r="G513" s="4"/>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A514" s="6"/>
-      <c r="B514" s="1"/>
-      <c r="C514" s="7"/>
-      <c r="D514" s="2"/>
-      <c r="G514" s="4"/>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A515" s="6"/>
-      <c r="B515" s="1"/>
-      <c r="C515" s="7"/>
-      <c r="D515" s="2"/>
-      <c r="G515" s="4"/>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A516" s="6"/>
-      <c r="B516" s="1"/>
-      <c r="C516" s="7"/>
-      <c r="D516" s="2"/>
-      <c r="G516" s="4"/>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A517" s="6"/>
-      <c r="B517" s="1"/>
-      <c r="C517" s="7"/>
-      <c r="D517" s="2"/>
-      <c r="G517" s="4"/>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A518" s="6"/>
-      <c r="B518" s="1"/>
-      <c r="C518" s="7"/>
-      <c r="D518" s="2"/>
-      <c r="G518" s="4"/>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A519" s="6"/>
-      <c r="B519" s="1"/>
-      <c r="C519" s="7"/>
-      <c r="D519" s="2"/>
-      <c r="G519" s="4"/>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A520" s="6"/>
-      <c r="B520" s="1"/>
-      <c r="C520" s="7"/>
-      <c r="D520" s="2"/>
-      <c r="G520" s="4"/>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A521" s="6"/>
-      <c r="B521" s="1"/>
-      <c r="C521" s="7"/>
-      <c r="D521" s="2"/>
-      <c r="G521" s="4"/>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A522" s="6"/>
-      <c r="B522" s="1"/>
-      <c r="C522" s="7"/>
-      <c r="D522" s="2"/>
-      <c r="G522" s="4"/>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A523" s="6"/>
-      <c r="B523" s="1"/>
-      <c r="C523" s="7"/>
-      <c r="D523" s="2"/>
-      <c r="G523" s="4"/>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A524" s="6"/>
-      <c r="B524" s="1"/>
-      <c r="C524" s="7"/>
-      <c r="D524" s="2"/>
-      <c r="G524" s="4"/>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A525" s="6"/>
-      <c r="B525" s="1"/>
-      <c r="C525" s="7"/>
-      <c r="D525" s="2"/>
-      <c r="G525" s="4"/>
-    </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A526" s="6"/>
-      <c r="B526" s="1"/>
-      <c r="C526" s="7"/>
-      <c r="D526" s="2"/>
-      <c r="G526" s="4"/>
+      <c r="A526" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B526" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C526" s="7">
+        <v>6</v>
+      </c>
+      <c r="D526" s="2">
+        <v>24551</v>
+      </c>
+      <c r="E526">
+        <v>22257</v>
+      </c>
+      <c r="F526">
+        <v>2294</v>
+      </c>
+      <c r="G526" s="4">
+        <v>9.3000000000000007</v>
+      </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A527" s="6"/>
-      <c r="B527" s="1"/>
-      <c r="C527" s="7"/>
-      <c r="D527" s="2"/>
-      <c r="G527" s="4"/>
+      <c r="A527" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B527" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C527" s="7">
+        <v>6</v>
+      </c>
+      <c r="D527" s="2">
+        <v>125497</v>
+      </c>
+      <c r="E527">
+        <v>116746</v>
+      </c>
+      <c r="F527">
+        <v>8751</v>
+      </c>
+      <c r="G527" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A528" s="6"/>
-      <c r="B528" s="1"/>
-      <c r="C528" s="7"/>
-      <c r="D528" s="2"/>
-      <c r="G528" s="4"/>
+      <c r="A528" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B528" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C528" s="7">
+        <v>6</v>
+      </c>
+      <c r="D528" s="2">
+        <v>140733</v>
+      </c>
+      <c r="E528">
+        <v>126714</v>
+      </c>
+      <c r="F528">
+        <v>14019</v>
+      </c>
+      <c r="G528" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A529" s="6"/>
-      <c r="B529" s="1"/>
-      <c r="C529" s="7"/>
-      <c r="D529" s="2"/>
-      <c r="G529" s="4"/>
+      <c r="A529" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B529" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C529" s="7">
+        <v>6</v>
+      </c>
+      <c r="D529" s="2">
+        <v>77273</v>
+      </c>
+      <c r="E529">
+        <v>72228</v>
+      </c>
+      <c r="F529">
+        <v>5045</v>
+      </c>
+      <c r="G529" s="4">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A530" s="6"/>
-      <c r="B530" s="1"/>
-      <c r="C530" s="7"/>
-      <c r="D530" s="2"/>
-      <c r="G530" s="4"/>
+      <c r="A530" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B530" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C530" s="7">
+        <v>6</v>
+      </c>
+      <c r="D530" s="2">
+        <v>178383</v>
+      </c>
+      <c r="E530">
+        <v>162660</v>
+      </c>
+      <c r="F530">
+        <v>15723</v>
+      </c>
+      <c r="G530" s="4">
+        <v>8.8000000000000007</v>
+      </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A531" s="6"/>
-      <c r="B531" s="1"/>
-      <c r="C531" s="7"/>
-      <c r="D531" s="2"/>
-      <c r="G531" s="4"/>
+      <c r="A531" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B531" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C531" s="7">
+        <v>6</v>
+      </c>
+      <c r="D531" s="2">
+        <v>227754</v>
+      </c>
+      <c r="E531">
+        <v>204313</v>
+      </c>
+      <c r="F531">
+        <v>23441</v>
+      </c>
+      <c r="G531" s="4">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A532" s="6"/>
-      <c r="B532" s="1"/>
-      <c r="C532" s="7"/>
-      <c r="D532" s="2"/>
-      <c r="G532" s="4"/>
+      <c r="A532" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B532" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C532" s="7">
+        <v>6</v>
+      </c>
+      <c r="D532" s="2">
+        <v>31242</v>
+      </c>
+      <c r="E532">
+        <v>28196</v>
+      </c>
+      <c r="F532">
+        <v>3046</v>
+      </c>
+      <c r="G532" s="4">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A533" s="6"/>
-      <c r="B533" s="1"/>
-      <c r="C533" s="7"/>
-      <c r="D533" s="2"/>
-      <c r="G533" s="4"/>
+      <c r="A533" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B533" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C533" s="7">
+        <v>6</v>
+      </c>
+      <c r="D533" s="2">
+        <v>17105</v>
+      </c>
+      <c r="E533">
+        <v>15902</v>
+      </c>
+      <c r="F533">
+        <v>1203</v>
+      </c>
+      <c r="G533" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A534" s="6"/>
-      <c r="B534" s="1"/>
-      <c r="C534" s="7"/>
-      <c r="D534" s="2"/>
-      <c r="G534" s="4"/>
+      <c r="A534" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B534" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C534" s="7">
+        <v>6</v>
+      </c>
+      <c r="D534" s="2">
+        <v>7786</v>
+      </c>
+      <c r="E534">
+        <v>7230</v>
+      </c>
+      <c r="F534">
+        <v>556</v>
+      </c>
+      <c r="G534" s="4">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A535" s="6"/>
-      <c r="B535" s="1"/>
-      <c r="C535" s="7"/>
-      <c r="D535" s="2"/>
-      <c r="G535" s="4"/>
+      <c r="A535" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B535" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C535" s="7">
+        <v>6</v>
+      </c>
+      <c r="D535" s="2">
+        <v>4129</v>
+      </c>
+      <c r="E535">
+        <v>3898</v>
+      </c>
+      <c r="F535">
+        <v>231</v>
+      </c>
+      <c r="G535" s="4">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A536" s="6"/>
-      <c r="B536" s="1"/>
-      <c r="C536" s="7"/>
-      <c r="D536" s="2"/>
-      <c r="G536" s="4"/>
+      <c r="A536" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B536" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C536" s="7">
+        <v>6</v>
+      </c>
+      <c r="D536" s="2">
+        <v>243978</v>
+      </c>
+      <c r="E536">
+        <v>220208</v>
+      </c>
+      <c r="F536">
+        <v>23770</v>
+      </c>
+      <c r="G536" s="4">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A537" s="6"/>
-      <c r="B537" s="1"/>
-      <c r="C537" s="7"/>
-      <c r="D537" s="2"/>
-      <c r="G537" s="4"/>
+      <c r="A537" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B537" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C537" s="7">
+        <v>6</v>
+      </c>
+      <c r="D537" s="2">
+        <v>13496</v>
+      </c>
+      <c r="E537">
+        <v>12705</v>
+      </c>
+      <c r="F537">
+        <v>791</v>
+      </c>
+      <c r="G537" s="4">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A538" s="6"/>
-      <c r="B538" s="1"/>
-      <c r="C538" s="7"/>
-      <c r="D538" s="2"/>
-      <c r="G538" s="4"/>
+      <c r="A538" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B538" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C538" s="7">
+        <v>6</v>
+      </c>
+      <c r="D538" s="2">
+        <v>30037</v>
+      </c>
+      <c r="E538">
+        <v>27909</v>
+      </c>
+      <c r="F538">
+        <v>2128</v>
+      </c>
+      <c r="G538" s="4">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A539" s="6"/>
-      <c r="B539" s="1"/>
-      <c r="C539" s="7"/>
-      <c r="D539" s="2"/>
-      <c r="G539" s="4"/>
+      <c r="A539" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B539" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C539" s="7">
+        <v>6</v>
+      </c>
+      <c r="D539" s="2">
+        <v>8915</v>
+      </c>
+      <c r="E539">
+        <v>8291</v>
+      </c>
+      <c r="F539">
+        <v>624</v>
+      </c>
+      <c r="G539" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A540" s="6"/>
-      <c r="B540" s="1"/>
-      <c r="C540" s="7"/>
-      <c r="D540" s="2"/>
-      <c r="G540" s="4"/>
+      <c r="A540" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B540" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C540" s="7">
+        <v>6</v>
+      </c>
+      <c r="D540" s="2">
+        <v>333525</v>
+      </c>
+      <c r="E540">
+        <v>300961</v>
+      </c>
+      <c r="F540">
+        <v>32564</v>
+      </c>
+      <c r="G540" s="4">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A541" s="6"/>
-      <c r="B541" s="1"/>
-      <c r="C541" s="7"/>
-      <c r="D541" s="2"/>
-      <c r="G541" s="4"/>
+      <c r="A541" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B541" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C541" s="7">
+        <v>6</v>
+      </c>
+      <c r="D541" s="2">
+        <v>121797</v>
+      </c>
+      <c r="E541">
+        <v>113840</v>
+      </c>
+      <c r="F541">
+        <v>7957</v>
+      </c>
+      <c r="G541" s="4">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A542" s="6"/>
-      <c r="B542" s="1"/>
-      <c r="C542" s="7"/>
-      <c r="D542" s="2"/>
-      <c r="G542" s="4"/>
+      <c r="A542" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B542" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C542" s="7">
+        <v>6</v>
+      </c>
+      <c r="D542" s="2">
+        <v>288978</v>
+      </c>
+      <c r="E542">
+        <v>260837</v>
+      </c>
+      <c r="F542">
+        <v>28141</v>
+      </c>
+      <c r="G542" s="4">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A543" s="6"/>
-      <c r="B543" s="1"/>
-      <c r="C543" s="7"/>
-      <c r="D543" s="2"/>
-      <c r="G543" s="4"/>
+      <c r="A543" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B543" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C543" s="7">
+        <v>6</v>
+      </c>
+      <c r="D543" s="2">
+        <v>133233</v>
+      </c>
+      <c r="E543">
+        <v>124320</v>
+      </c>
+      <c r="F543">
+        <v>8913</v>
+      </c>
+      <c r="G543" s="4">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A544" s="6"/>
-      <c r="B544" s="1"/>
-      <c r="C544" s="7"/>
-      <c r="D544" s="2"/>
-      <c r="G544" s="4"/>
+      <c r="A544" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B544" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C544" s="7">
+        <v>6</v>
+      </c>
+      <c r="D544" s="2">
+        <v>45375</v>
+      </c>
+      <c r="E544">
+        <v>40729</v>
+      </c>
+      <c r="F544">
+        <v>4646</v>
+      </c>
+      <c r="G544" s="4">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A545" s="6"/>
-      <c r="B545" s="1"/>
-      <c r="C545" s="7"/>
-      <c r="D545" s="2"/>
-      <c r="G545" s="4"/>
+      <c r="A545" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B545" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C545" s="7">
+        <v>6</v>
+      </c>
+      <c r="D545" s="2">
+        <v>748074</v>
+      </c>
+      <c r="E545">
+        <v>688485</v>
+      </c>
+      <c r="F545">
+        <v>59589</v>
+      </c>
+      <c r="G545" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A546" s="6"/>
-      <c r="B546" s="1"/>
-      <c r="C546" s="7"/>
-      <c r="D546" s="2"/>
-      <c r="G546" s="4"/>
+      <c r="A546" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B546" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C546" s="7">
+        <v>6</v>
+      </c>
+      <c r="D546" s="2">
+        <v>305336</v>
+      </c>
+      <c r="E546">
+        <v>262330</v>
+      </c>
+      <c r="F546">
+        <v>43006</v>
+      </c>
+      <c r="G546" s="4">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A547" s="6"/>
-      <c r="B547" s="1"/>
-      <c r="C547" s="7"/>
-      <c r="D547" s="2"/>
-      <c r="G547" s="4"/>
+      <c r="A547" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B547" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C547" s="7">
+        <v>6</v>
+      </c>
+      <c r="D547" s="2">
+        <v>2940463</v>
+      </c>
+      <c r="E547">
+        <v>2607155</v>
+      </c>
+      <c r="F547">
+        <v>333308</v>
+      </c>
+      <c r="G547" s="4">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A548" s="6"/>
-      <c r="B548" s="1"/>
-      <c r="C548" s="7"/>
-      <c r="D548" s="2"/>
-      <c r="E548" s="3"/>
-      <c r="F548" s="3"/>
-      <c r="G548" s="4"/>
+      <c r="A548" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B548" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C548" s="7">
+        <v>6</v>
+      </c>
+      <c r="D548" s="2">
+        <v>167339</v>
+      </c>
+      <c r="E548" s="3">
+        <v>151125</v>
+      </c>
+      <c r="F548" s="3">
+        <v>16214</v>
+      </c>
+      <c r="G548" s="4">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A549" s="6"/>
-      <c r="B549" s="1"/>
-      <c r="C549" s="7"/>
-      <c r="D549" s="2"/>
-      <c r="E549" s="3"/>
-      <c r="F549" s="3"/>
-      <c r="G549" s="4"/>
+      <c r="A549" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B549" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C549" s="7">
+        <v>6</v>
+      </c>
+      <c r="D549" s="2">
+        <v>347853</v>
+      </c>
+      <c r="E549" s="3">
+        <v>317518</v>
+      </c>
+      <c r="F549" s="3">
+        <v>30335</v>
+      </c>
+      <c r="G549" s="4">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A550" s="6"/>
-      <c r="B550" s="1"/>
-      <c r="C550" s="7"/>
-      <c r="D550" s="2"/>
-      <c r="G550" s="4"/>
+      <c r="A550" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B550" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C550" s="7">
+        <v>6</v>
+      </c>
+      <c r="D550" s="2">
+        <v>133949</v>
+      </c>
+      <c r="E550">
+        <v>122557</v>
+      </c>
+      <c r="F550">
+        <v>11392</v>
+      </c>
+      <c r="G550" s="4">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A551" s="6"/>
-      <c r="B551" s="1"/>
-      <c r="C551" s="7"/>
-      <c r="D551" s="2"/>
-      <c r="G551" s="4"/>
+      <c r="A551" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B551" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C551" s="7">
+        <v>6</v>
+      </c>
+      <c r="D551" s="2">
+        <v>1302852</v>
+      </c>
+      <c r="E551">
+        <v>1087800</v>
+      </c>
+      <c r="F551">
+        <v>215052</v>
+      </c>
+      <c r="G551" s="4">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A552" s="6"/>
-      <c r="B552" s="1"/>
-      <c r="C552" s="7"/>
-      <c r="D552" s="2"/>
-      <c r="G552" s="4"/>
+      <c r="A552" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B552" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C552" s="7">
+        <v>6</v>
+      </c>
+      <c r="D552" s="2">
+        <v>275711</v>
+      </c>
+      <c r="E552">
+        <v>252245</v>
+      </c>
+      <c r="F552">
+        <v>23466</v>
+      </c>
+      <c r="G552" s="4">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A553" s="6"/>
-      <c r="B553" s="1"/>
-      <c r="C553" s="7"/>
-      <c r="D553" s="2"/>
-      <c r="G553" s="4"/>
+      <c r="A553" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B553" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C553" s="7">
+        <v>6</v>
+      </c>
+      <c r="D553" s="2">
+        <v>85592</v>
+      </c>
+      <c r="E553">
+        <v>79551</v>
+      </c>
+      <c r="F553">
+        <v>6041</v>
+      </c>
+      <c r="G553" s="4">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A554" s="6"/>
-      <c r="B554" s="1"/>
-      <c r="C554" s="7"/>
-      <c r="D554" s="2"/>
-      <c r="G554" s="4"/>
+      <c r="A554" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B554" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C554" s="7">
+        <v>6</v>
+      </c>
+      <c r="D554" s="2">
+        <v>214928</v>
+      </c>
+      <c r="E554">
+        <v>198966</v>
+      </c>
+      <c r="F554">
+        <v>15962</v>
+      </c>
+      <c r="G554" s="4">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A555" s="6"/>
-      <c r="B555" s="1"/>
-      <c r="C555" s="7"/>
-      <c r="D555" s="2"/>
-      <c r="G555" s="4"/>
+      <c r="A555" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B555" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C555" s="7">
+        <v>6</v>
+      </c>
+      <c r="D555" s="2">
+        <v>211679</v>
+      </c>
+      <c r="E555">
+        <v>191957</v>
+      </c>
+      <c r="F555">
+        <v>19722</v>
+      </c>
+      <c r="G555" s="4">
+        <v>9.3000000000000007</v>
+      </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A556" s="6"/>
-      <c r="B556" s="1"/>
-      <c r="C556" s="7"/>
-      <c r="D556" s="2"/>
-      <c r="G556" s="4"/>
+      <c r="A556" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B556" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C556" s="7">
+        <v>6</v>
+      </c>
+      <c r="D556" s="2">
+        <v>68617</v>
+      </c>
+      <c r="E556">
+        <v>62141</v>
+      </c>
+      <c r="F556">
+        <v>6476</v>
+      </c>
+      <c r="G556" s="4">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A557" s="6"/>
-      <c r="B557" s="1"/>
-      <c r="C557" s="7"/>
-      <c r="D557" s="2"/>
-      <c r="G557" s="4"/>
+      <c r="A557" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B557" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C557" s="7">
+        <v>6</v>
+      </c>
+      <c r="D557" s="2">
+        <v>61039</v>
+      </c>
+      <c r="E557">
+        <v>55128</v>
+      </c>
+      <c r="F557">
+        <v>5911</v>
+      </c>
+      <c r="G557" s="4">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A558" s="6"/>
-      <c r="B558" s="1"/>
-      <c r="C558" s="7"/>
-      <c r="D558" s="2"/>
-      <c r="G558" s="4"/>
+      <c r="A558" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B558" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C558" s="7">
+        <v>6</v>
+      </c>
+      <c r="D558" s="2">
+        <v>34805</v>
+      </c>
+      <c r="E558">
+        <v>31601</v>
+      </c>
+      <c r="F558">
+        <v>3204</v>
+      </c>
+      <c r="G558" s="4">
+        <v>9.1999999999999993</v>
+      </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A559" s="6"/>
-      <c r="B559" s="1"/>
-      <c r="C559" s="7"/>
-      <c r="D559" s="2"/>
-      <c r="G559" s="4"/>
+      <c r="A559" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B559" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C559" s="7">
+        <v>6</v>
+      </c>
+      <c r="D559" s="2">
+        <v>178465</v>
+      </c>
+      <c r="E559">
+        <v>165770</v>
+      </c>
+      <c r="F559">
+        <v>12695</v>
+      </c>
+      <c r="G559" s="4">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A560" s="6"/>
-      <c r="B560" s="1"/>
-      <c r="C560" s="7"/>
-      <c r="D560" s="2"/>
-      <c r="G560" s="4"/>
+      <c r="A560" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B560" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C560" s="7">
+        <v>6</v>
+      </c>
+      <c r="D560" s="2">
+        <v>1486272</v>
+      </c>
+      <c r="E560">
+        <v>1349898</v>
+      </c>
+      <c r="F560">
+        <v>136374</v>
+      </c>
+      <c r="G560" s="4">
+        <v>9.1999999999999993</v>
+      </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A561" s="6"/>
-      <c r="B561" s="1"/>
-      <c r="C561" s="7"/>
-      <c r="D561" s="2"/>
-      <c r="G561" s="4"/>
+      <c r="A561" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B561" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C561" s="7">
+        <v>6</v>
+      </c>
+      <c r="D561" s="2">
+        <v>31242</v>
+      </c>
+      <c r="E561">
+        <v>28196</v>
+      </c>
+      <c r="F561">
+        <v>3046</v>
+      </c>
+      <c r="G561" s="4">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A562" s="6"/>
-      <c r="B562" s="1"/>
-      <c r="C562" s="7"/>
-      <c r="D562" s="2"/>
-      <c r="G562" s="4"/>
+      <c r="A562" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B562" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C562" s="7">
+        <v>6</v>
+      </c>
+      <c r="D562" s="2">
+        <v>992435</v>
+      </c>
+      <c r="E562">
+        <v>875315</v>
+      </c>
+      <c r="F562">
+        <v>117120</v>
+      </c>
+      <c r="G562" s="4">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A563" s="6"/>
-      <c r="B563" s="1"/>
-      <c r="C563" s="7"/>
-      <c r="D563" s="2"/>
-      <c r="G563" s="4"/>
+      <c r="A563" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B563" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C563" s="7">
+        <v>6</v>
+      </c>
+      <c r="D563" s="2">
+        <v>1269957</v>
+      </c>
+      <c r="E563">
+        <v>1124302</v>
+      </c>
+      <c r="F563">
+        <v>145655</v>
+      </c>
+      <c r="G563" s="4">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A564" s="6"/>
-      <c r="B564" s="1"/>
-      <c r="C564" s="7"/>
-      <c r="D564" s="2"/>
-      <c r="G564" s="4"/>
+      <c r="A564" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B564" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C564" s="7">
+        <v>6</v>
+      </c>
+      <c r="D564" s="2">
+        <v>678071</v>
+      </c>
+      <c r="E564">
+        <v>607538</v>
+      </c>
+      <c r="F564">
+        <v>70533</v>
+      </c>
+      <c r="G564" s="4">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A565" s="6"/>
